--- a/data/trans_bre/P3A$yo-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P3A$yo-Dificultad-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>28.14186185468079</v>
+        <v>28.14186185468082</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.449455665364066</v>
+        <v>0.4494556653640663</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>22.92215948058411</v>
+        <v>23.28817368512261</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.3417551035785696</v>
+        <v>0.3451291675810606</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>33.53069671220248</v>
+        <v>33.62906278869606</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.5800562165530418</v>
+        <v>0.5768650821145644</v>
       </c>
     </row>
     <row r="7">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>24.87147483272964</v>
+        <v>24.36154507140358</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.3803995186984966</v>
+        <v>0.3658673808561165</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>33.01301622402264</v>
+        <v>32.28370955437622</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5577732997251881</v>
+        <v>0.5431987077465833</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>27.24370664153108</v>
+        <v>27.24370664153109</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.4272435712228038</v>
+        <v>0.4272435712228039</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>23.51422263248638</v>
+        <v>23.37649285022004</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.3547646156493716</v>
+        <v>0.3507179281044805</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>31.32006338484621</v>
+        <v>30.90596389191538</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.5199967288725386</v>
+        <v>0.5089067748622107</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>16.56026953724415</v>
+        <v>16.56026953724417</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.2278772742547673</v>
+        <v>0.2278772742547675</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>12.7007673908328</v>
+        <v>12.69049835100339</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1695321630704487</v>
+        <v>0.1670767800920119</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>20.26680743908865</v>
+        <v>20.79815989233195</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2892113605800702</v>
+        <v>0.2982464408690421</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>24.85771925497807</v>
+        <v>24.85771925497809</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.3776308776482724</v>
+        <v>0.3776308776482728</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>22.9761509904856</v>
+        <v>22.72769276120563</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.3424402944390376</v>
+        <v>0.3362274678014088</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>27.05310670491205</v>
+        <v>26.71971885853101</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.4222102152655149</v>
+        <v>0.4151304386736058</v>
       </c>
     </row>
     <row r="19">
